--- a/bpnet/prediction.xlsx
+++ b/bpnet/prediction.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A155"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,772 +387,417 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1023.091979980469</v>
+        <v>1222.619384765625</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1078.33056640625</v>
+        <v>922.9693603515625</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1081.545776367188</v>
+        <v>820.0963745117188</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>591.9548950195312</v>
+        <v>555.7186889648438</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1009.970703125</v>
+        <v>767.6483764648438</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>872.5152587890625</v>
+        <v>1121.728637695312</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1188.029052734375</v>
+        <v>1224.501098632812</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1057.493286132812</v>
+        <v>865.8134765625</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>462.9166870117188</v>
+        <v>1126.006958007812</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>1244.156494140625</v>
+        <v>1126.358520507812</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>810.3949584960938</v>
+        <v>1020.113525390625</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>565.7286987304688</v>
+        <v>1294.605102539062</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>1062.32421875</v>
+        <v>758.3013305664062</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>576.1419067382812</v>
+        <v>1324.944702148438</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>911.5746459960938</v>
+        <v>902.6180419921875</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>826.9314575195312</v>
+        <v>1231.518798828125</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>981.4928588867188</v>
+        <v>891.8099365234375</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1093.75634765625</v>
+        <v>770.6594848632812</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1036.32177734375</v>
+        <v>1287.926025390625</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>965.61181640625</v>
+        <v>1014.116088867188</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>1029.402954101562</v>
+        <v>1140.810424804688</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1368.36474609375</v>
+        <v>1189.126831054688</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>1169.8994140625</v>
+        <v>992.9671020507812</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1424.759155273438</v>
+        <v>790.8803100585938</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>972.5322875976562</v>
+        <v>1236.196166992188</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1135.932006835938</v>
+        <v>1168.241821289062</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1128.489501953125</v>
+        <v>822.89990234375</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>844.875</v>
+        <v>1267.239013671875</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>876.003662109375</v>
+        <v>858.4376220703125</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>1063.713623046875</v>
+        <v>1116.908813476562</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>1036.704345703125</v>
+        <v>864.9136352539062</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>1267.743041992188</v>
+        <v>701.2025146484375</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1046.712768554688</v>
+        <v>1175.343383789062</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>1048.979248046875</v>
+        <v>896.4036865234375</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1007.361511230469</v>
+        <v>1123.449096679688</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>762.2280883789062</v>
+        <v>1221.423217773438</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>1140.99365234375</v>
+        <v>1230.50439453125</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>1242.281372070312</v>
+        <v>786.84423828125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>653.1397705078125</v>
+        <v>1259.130981445312</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>779.1466674804688</v>
+        <v>591.6069946289062</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>540.3313598632812</v>
+        <v>1148.95068359375</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1104.802978515625</v>
+        <v>825.2413330078125</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>955.8468017578125</v>
+        <v>980.9841918945312</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1055.768676757812</v>
+        <v>1231.549682617188</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>567.4999389648438</v>
+        <v>1117.492797851562</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1222.209594726562</v>
+        <v>1213.5947265625</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>980.0670166015625</v>
+        <v>1191.259521484375</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>1180.450073242188</v>
+        <v>924.0682373046875</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>501.872314453125</v>
+        <v>1279.575927734375</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>968.3974609375</v>
+        <v>1237.828247070312</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1131.450927734375</v>
+        <v>1291.902221679688</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>949.5830078125</v>
+        <v>1305.236328125</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>872.51123046875</v>
+        <v>630.7052001953125</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1270.193725585938</v>
+        <v>1207.248291015625</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>797.8280029296875</v>
+        <v>1170.678955078125</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>645.8062744140625</v>
+        <v>1196.465576171875</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>579.2660522460938</v>
+        <v>884.2395629882812</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>675.3153686523438</v>
+        <v>986.3170166015625</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1063.717895507812</v>
+        <v>923.8177490234375</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>878.7645263671875</v>
+        <v>735.0574340820312</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>997.3736572265625</v>
+        <v>1048.063842773438</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>1177.096923828125</v>
+        <v>1166.915893554688</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>773.2235717773438</v>
+        <v>1242.047607421875</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>1043.323974609375</v>
+        <v>1096.140747070312</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>378.3158264160156</v>
+        <v>965.2630615234375</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>610.0237426757812</v>
+        <v>1337.23779296875</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>527.9270629882812</v>
+        <v>1165.703979492188</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>872.6102905273438</v>
+        <v>1297.23193359375</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>1113.553344726562</v>
+        <v>1269.839477539062</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>819.700927734375</v>
+        <v>1140.34130859375</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>518.1804809570312</v>
+        <v>1213.296752929688</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>558.7007446289062</v>
+        <v>945.7797241210938</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>762.4901733398438</v>
+        <v>1225.584838867188</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>274.4548950195312</v>
+        <v>1057.17626953125</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>701.009033203125</v>
+        <v>1223.356201171875</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>313.8634643554688</v>
+        <v>1074.25732421875</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>910.1533203125</v>
+        <v>1121.091186523438</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>-25.20222282409668</v>
+        <v>980.972412109375</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>1015.006103515625</v>
+        <v>1253.924072265625</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>564.4412231445312</v>
+        <v>1173.168823242188</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>727.3275146484375</v>
+        <v>1184.70361328125</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>873.1981201171875</v>
+        <v>902.1231079101562</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>984.4080810546875</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
-        <v>841.2953491210938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
-        <v>684.9771728515625</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
-        <v>1113.007690429688</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
-        <v>1127.446411132812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
-        <v>500.6331787109375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
-        <v>742.2553100585938</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
-        <v>824.7488403320312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
-        <v>1040.457641601562</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
-        <v>1071.817260742188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
-        <v>340.0415649414062</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
-        <v>769.7567138671875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
-        <v>858.52587890625</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
-        <v>386.4465026855469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
-        <v>672.070068359375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
-        <v>555.5536499023438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
-        <v>541.5455322265625</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
-        <v>924.199462890625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
-        <v>602.7588500976562</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
-        <v>878.9739990234375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
-        <v>977.4811401367188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
-        <v>673.6420288085938</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
-        <v>1187.809936523438</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
-        <v>822.1694946289062</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
-        <v>990.3792724609375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
-        <v>1118.203125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
-        <v>1082.384765625</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
-        <v>569.5521850585938</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
-        <v>1228.725708007812</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
-        <v>561.1919555664062</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
-        <v>1119.356689453125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
-        <v>706.9876098632812</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
-        <v>1047.76025390625</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
-        <v>783.2235107421875</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
-        <v>784.7877807617188</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
-        <v>696.9383544921875</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
-        <v>493.1166687011719</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121">
-        <v>776.268310546875</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122">
-        <v>631.3428344726562</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123">
-        <v>-72.26118469238281</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124">
-        <v>936.4212646484375</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125">
-        <v>1047.7138671875</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126">
-        <v>271.3474731445312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
-        <v>116.9136428833008</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
-        <v>1032.15234375</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
-        <v>1359.1416015625</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
-        <v>527.5173950195312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
-        <v>647.7432861328125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
-        <v>831.01123046875</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
-        <v>872.7135620117188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134">
-        <v>465.5581665039062</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135">
-        <v>746.8604125976562</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136">
-        <v>807.8523559570312</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137">
-        <v>1208.349243164062</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138">
-        <v>959.9780883789062</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139">
-        <v>917.866943359375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140">
-        <v>1006.940856933594</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141">
-        <v>396.4042053222656</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142">
-        <v>862.928466796875</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
-        <v>1129.825927734375</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
-        <v>865.0533447265625</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145">
-        <v>905.0830688476562</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146">
-        <v>552.7640380859375</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147">
-        <v>860.0865478515625</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148">
-        <v>1069.152587890625</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149">
-        <v>1055.908813476562</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150">
-        <v>1238.238159179688</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151">
-        <v>563.7547607421875</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152">
-        <v>480.2593688964844</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153">
-        <v>545.0167236328125</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154">
-        <v>704.0536499023438</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
-        <v>1127.630981445312</v>
+        <v>871.9402465820312</v>
       </c>
     </row>
   </sheetData>

--- a/bpnet/prediction.xlsx
+++ b/bpnet/prediction.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,417 +387,257 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1222.619384765625</v>
+        <v>1215.317993164062</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>922.9693603515625</v>
+        <v>1267.04541015625</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>820.0963745117188</v>
+        <v>1109.364624023438</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>555.7186889648438</v>
+        <v>983.305419921875</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>767.6483764648438</v>
+        <v>1018.987548828125</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>1121.728637695312</v>
+        <v>1222.982421875</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1224.501098632812</v>
+        <v>1196.29833984375</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>865.8134765625</v>
+        <v>1162.483032226562</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>1126.006958007812</v>
+        <v>937.3618774414062</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>1126.358520507812</v>
+        <v>1103.48828125</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>1020.113525390625</v>
+        <v>1289.254760742188</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1294.605102539062</v>
+        <v>1299.052734375</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>758.3013305664062</v>
+        <v>1228.641845703125</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1324.944702148438</v>
+        <v>1302.549682617188</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>902.6180419921875</v>
+        <v>1189.1806640625</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>1231.518798828125</v>
+        <v>1194.231689453125</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>891.8099365234375</v>
+        <v>1121.271484375</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>770.6594848632812</v>
+        <v>531.6371459960938</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1287.926025390625</v>
+        <v>1249.7158203125</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1014.116088867188</v>
+        <v>1176.224975585938</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>1140.810424804688</v>
+        <v>871.0697631835938</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1189.126831054688</v>
+        <v>1009.487854003906</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>992.9671020507812</v>
+        <v>1278.685913085938</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>790.8803100585938</v>
+        <v>1127.509033203125</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>1236.196166992188</v>
+        <v>1077.435302734375</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1168.241821289062</v>
+        <v>1205.808227539062</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>822.89990234375</v>
+        <v>1066.099487304688</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>1267.239013671875</v>
+        <v>1035.51220703125</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>858.4376220703125</v>
+        <v>638.9589233398438</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>1116.908813476562</v>
+        <v>1186.121948242188</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>864.9136352539062</v>
+        <v>778.7615356445312</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>701.2025146484375</v>
+        <v>937.81201171875</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1175.343383789062</v>
+        <v>974.9939575195312</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>896.4036865234375</v>
+        <v>672.808349609375</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1123.449096679688</v>
+        <v>1173.932373046875</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>1221.423217773438</v>
+        <v>1105.167236328125</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>1230.50439453125</v>
+        <v>1230.697265625</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>786.84423828125</v>
+        <v>1086.336791992188</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>1259.130981445312</v>
+        <v>1215.485961914062</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>591.6069946289062</v>
+        <v>812.5189819335938</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>1148.95068359375</v>
+        <v>1131.782348632812</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>825.2413330078125</v>
+        <v>656.6863403320312</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>980.9841918945312</v>
+        <v>841.2566528320312</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1231.549682617188</v>
+        <v>1102.950317382812</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1117.492797851562</v>
+        <v>1022.598876953125</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1213.5947265625</v>
+        <v>1128.6669921875</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>1191.259521484375</v>
+        <v>781.890380859375</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>924.0682373046875</v>
+        <v>1249.505615234375</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1279.575927734375</v>
+        <v>999.4573364257812</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>1237.828247070312</v>
+        <v>874.6738891601562</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1291.902221679688</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>1305.236328125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>630.7052001953125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>1207.248291015625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>1170.678955078125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>1196.465576171875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>884.2395629882812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>986.3170166015625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>923.8177490234375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>735.0574340820312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>1048.063842773438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
-        <v>1166.915893554688</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>1242.047607421875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
-        <v>1096.140747070312</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <v>965.2630615234375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>1337.23779296875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>1165.703979492188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
-        <v>1297.23193359375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
-        <v>1269.839477539062</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
-        <v>1140.34130859375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
-        <v>1213.296752929688</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <v>945.7797241210938</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>1225.584838867188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <v>1057.17626953125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
-        <v>1223.356201171875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
-        <v>1074.25732421875</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
-        <v>1121.091186523438</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
-        <v>980.972412109375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
-        <v>1253.924072265625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
-        <v>1173.168823242188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
-        <v>1184.70361328125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
-        <v>902.1231079101562</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
-        <v>871.9402465820312</v>
+        <v>1245.7353515625</v>
       </c>
     </row>
   </sheetData>
